--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/14_Batman_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/14_Batman_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6767D23A-783F-4AAC-B996-07B9A0829031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D144A0C-FABB-4828-B07E-2C752A61E68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{9EF9DB39-3047-4D2C-8879-5ABA7E9473E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{08660414-4ED6-4356-B726-A8C03F327D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -802,14 +802,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A6EE5B11-0DA3-4EEA-9F8F-F25AD0B64FA0}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C333ED9D-1E03-4546-9ECF-539FBDFE2E4D}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{F5343BFA-DBF9-4E11-A897-4EF43C1A3A03}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{47EEF0D1-CB6E-4DD2-A931-2DCEFCA9961F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E5012855-A9A8-4600-8170-7B3D4B303BA2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{30A9E259-56DA-4FC9-8007-45F21BAA365C}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{1F971F52-DE8B-401E-B034-C63008807B43}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5D52E87C-140C-4DB2-918F-F60382BD9353}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C3AF2507-B22C-4D77-947A-B0F990D8C090}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C2F546F1-903C-46FC-BD64-2385D4C720C6}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{EDB2BB4E-E63C-4AB7-A07E-69535129E66E}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{72D0BCE1-E473-4D91-9D50-54091E0EEF8A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0A525FD4-8F87-4F1B-86C1-82993542021A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7827AC29-BF68-4706-AF6B-6FAA5AAA3CD8}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{717721E8-888E-4317-84A3-43C98A127E69}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6780AB32-9399-470C-86DD-F37C4B368EED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA884FB-4E83-4627-8F7A-B2DBE3DF1A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F91D953-AEA8-4E66-84CF-400DA1FED709}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2426,7 +2426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFD5731-D474-4ECE-A099-78F9DD536CE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C4B257-521F-4B8D-A945-6DA6E46A7A77}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3670,7 +3670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96E0BF3-2978-4FA3-BBDD-8BE7E6BADF71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1497902C-F9E5-45C0-A007-CBB62B51C293}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4915,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85659F4-4696-4871-AE8A-9A02F8A6DC10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB620522-A628-4059-98D2-1F7D628EB150}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6164,7 +6164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA0AF48-36D6-46D5-9E75-C5EC04027D18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7090840-943D-4ACE-8049-86817F01B826}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7399,7 +7399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90074BB4-33F8-40C4-B979-9BAA693C25AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E447F65C-F7FD-4541-9742-2DBDA89FE531}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
